--- a/report_parameters.xlsx
+++ b/report_parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">report number</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://mnregaweb4.nic.in/netnrega/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nreganarep.nic.in/netnrega/nrm_works_report.aspx?lflag=eng&amp;source=national&amp;labels=labels&amp;Digest=MZ7EPgZ8ZwgnIaImm+t7hA&amp;fin_year=</t>
   </si>
 </sst>
 </file>
@@ -231,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
   </cols>
@@ -501,6 +507,29 @@
       </c>
       <c r="I9" s="0" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
